--- a/biology/Zoologie/Hydrophis_melanocephalus/Hydrophis_melanocephalus.xlsx
+++ b/biology/Zoologie/Hydrophis_melanocephalus/Hydrophis_melanocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis melanocephalus est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis melanocephalus est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce marine se rencontre dans l'ouest de l'océan Pacifique, dans les eaux du Viêt Nam, des Philippines, de la République populaire de Chine, de Taïwan, du Japon et de la Corée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce marine se rencontre dans l'ouest de l'océan Pacifique, dans les eaux du Viêt Nam, des Philippines, de la République populaire de Chine, de Taïwan, du Japon et de la Corée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis melanocephalus mesure de 80 à 140 cm. Son dos[1] est jaune grisâtre, jaunâtre ou blanc avec entre 40 et 55 rayures transversales aussi larges que l'espace les séparant. Sa tête est noirâtre et présente parfois de petites taches jaunes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis melanocephalus mesure de 80 à 140 cm. Son dos est jaune grisâtre, jaunâtre ou blanc avec entre 40 et 55 rayures transversales aussi larges que l'espace les séparant. Sa tête est noirâtre et présente parfois de petites taches jaunes.
 C'est un serpent venimeux. Son venin, neurotoxique et mortel dans le pire des cas, provoque une intense fatigue, des douleurs musculaires, des mouvements anormaux, de la difficulté à respirer, de la paralysie.
 Cette espèce animale est ovovivipare et exclusivement aquatique.
 </t>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec ancien μέλας, mélas, « noir », et κεφαλή, képhalế, « tête », lui a été donné en référence à sa livrée.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1849 : Catalogue of the specimens of snakes in the collection of the British Museum. London, p. 1-125 (texte intégral).</t>
         </is>
